--- a/Test/TestExcelFiles/VisitGivenTableProperties.xlsx
+++ b/Test/TestExcelFiles/VisitGivenTableProperties.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburge\Documents\repos\customer-tests-excel\Test\TestExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC8C53D1-AEDC-4246-8FE6-B66EEFCABDC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5485685F-4E5E-48D7-95E7-F48D2F49FF8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="VisitGivenTableProperties" sheetId="1" r:id="rId1"/>
+    <sheet name="VisitGivenTableSimpleProperties" sheetId="2" r:id="rId1"/>
+    <sheet name="VisitGivenTableComplexPropertie" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Specification</t>
   </si>
@@ -75,9 +76,6 @@
     <t>ComplexProperty2 of</t>
   </si>
   <si>
-    <t>VisitGivenTableProperties</t>
-  </si>
-  <si>
     <t>SimplePropertyValue1</t>
   </si>
   <si>
@@ -97,6 +95,30 @@
   </si>
   <si>
     <t>ComplexProperty of</t>
+  </si>
+  <si>
+    <t>SimpleProperty1 of</t>
+  </si>
+  <si>
+    <t>SimpleProperty2 of</t>
+  </si>
+  <si>
+    <t>SimpleProperty1Value1</t>
+  </si>
+  <si>
+    <t>SimpleProperty1Value2</t>
+  </si>
+  <si>
+    <t>SimpleProperty2Value1</t>
+  </si>
+  <si>
+    <t>SimpleProperty2Value2</t>
+  </si>
+  <si>
+    <t>VisitGivenTableSimpleProperties</t>
+  </si>
+  <si>
+    <t>VisitGivenTableComplexProperties</t>
   </si>
 </sst>
 </file>
@@ -144,7 +166,2994 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="182">
+  <dxfs count="559">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1896,11 +4905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389079D-C9FD-4AFA-AFB3-2F9AFFAD165C}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91992AB-191B-4E88-B895-A3BE04B899D7}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1954,6 +4963,1479 @@
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD4 A5:B8 E5:XFD6 I7:XFD9 A13:XFD1048576 H10:XFD12 A10:F14 A8:C9 D8:F8 A9:D9">
+    <cfRule type="cellIs" dxfId="376" priority="368" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="375" priority="369" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="370" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="371" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="372" priority="372" operator="beginsWith" text="With Properties">
+      <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="371" priority="373" operator="endsWith" text=" table of">
+      <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="370" priority="374" operator="endsWith" text=" of">
+      <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="375">
+      <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="368" priority="376">
+      <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD4 A5:B8 E5:XFD6 I7:XFD9 A13:XFD1048576 H10:XFD12 A10:F14 A8:C9 D8:F8 A9:D9">
+    <cfRule type="notContainsBlanks" dxfId="367" priority="377">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD4 A5:B8 E5:XFD6 I7:XFD9 A13:XFD1048576 H10:XFD12 A10:F14 A8:C9 D8:F8 A9:D9">
+    <cfRule type="cellIs" dxfId="366" priority="366" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="365" priority="367" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD4 A5:B8 E5:XFD6 I7:XFD9 A13:XFD1048576 H10:XFD12 A10:F14 A8:C9 D8:F8 A9:D9">
+    <cfRule type="cellIs" dxfId="364" priority="365" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:D8">
+    <cfRule type="cellIs" dxfId="363" priority="355" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="356" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="357" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="358" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="359" priority="359" operator="beginsWith" text="With Properties">
+      <formula>LEFT(C5,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="358" priority="360" operator="endsWith" text=" table of">
+      <formula>RIGHT(C5,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="357" priority="361" operator="endsWith" text=" of">
+      <formula>RIGHT(C5,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="362">
+      <formula>AND((RIGHT(C4, 3) = " of"), C6 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="363">
+      <formula>AND(RIGHT(B5, 3) = " of", C6 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:D8">
+    <cfRule type="notContainsBlanks" dxfId="354" priority="364">
+      <formula>LEN(TRIM(C5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:D8">
+    <cfRule type="cellIs" dxfId="353" priority="353" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="354" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:D8">
+    <cfRule type="cellIs" dxfId="351" priority="352" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H9 D7:F9">
+    <cfRule type="cellIs" dxfId="350" priority="342" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="343" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="344" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="347" priority="345" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="346" priority="346" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D7,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="345" priority="347" operator="endsWith" text=" table of">
+      <formula>RIGHT(D7,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="344" priority="348" operator="endsWith" text=" of">
+      <formula>RIGHT(D7,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="349">
+      <formula>AND((RIGHT(D6, 3) = " of"), D8 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="350">
+      <formula>AND(RIGHT(C7, 3) = " of", D8 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H9 D7:F9">
+    <cfRule type="notContainsBlanks" dxfId="341" priority="351">
+      <formula>LEN(TRIM(D7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H9 D7:F9">
+    <cfRule type="cellIs" dxfId="340" priority="340" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="341" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H9 D7:F9">
+    <cfRule type="cellIs" dxfId="338" priority="339" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="337" priority="329" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="330" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="335" priority="331" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="332" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="333" priority="333" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D11,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="332" priority="334" operator="endsWith" text=" table of">
+      <formula>RIGHT(D11,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="331" priority="335" operator="endsWith" text=" of">
+      <formula>RIGHT(D11,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="336">
+      <formula>AND((RIGHT(D10, 3) = " of"), D12 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="337">
+      <formula>AND(RIGHT(C11, 3) = " of", D12 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="notContainsBlanks" dxfId="328" priority="338">
+      <formula>LEN(TRIM(D11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="327" priority="327" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="328" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="325" priority="326" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:F12">
+    <cfRule type="cellIs" dxfId="324" priority="316" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="323" priority="317" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="318" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="319" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="320" priority="320" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D12,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="319" priority="321" operator="endsWith" text=" table of">
+      <formula>RIGHT(D12,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="318" priority="322" operator="endsWith" text=" of">
+      <formula>RIGHT(D12,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="323">
+      <formula>AND((RIGHT(D11, 3) = " of"), D13 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="324">
+      <formula>AND(RIGHT(C12, 3) = " of", D13 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:F12">
+    <cfRule type="notContainsBlanks" dxfId="315" priority="325">
+      <formula>LEN(TRIM(D12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:F12">
+    <cfRule type="cellIs" dxfId="314" priority="314" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="315" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:F12">
+    <cfRule type="cellIs" dxfId="312" priority="313" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="311" priority="303" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="304" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="305" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="306" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="307" priority="307" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D12,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="306" priority="308" operator="endsWith" text=" table of">
+      <formula>RIGHT(D12,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="305" priority="309" operator="endsWith" text=" of">
+      <formula>RIGHT(D12,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="310">
+      <formula>AND((RIGHT(D11, 3) = " of"), D13 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="311">
+      <formula>AND(RIGHT(C12, 3) = " of", D13 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="notContainsBlanks" dxfId="302" priority="312">
+      <formula>LEN(TRIM(D12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="301" priority="301" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="302" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="299" priority="300" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="cellIs" dxfId="298" priority="290" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="291" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="292" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="293" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="294" priority="294" operator="beginsWith" text="With Properties">
+      <formula>LEFT(G9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="293" priority="295" operator="endsWith" text=" table of">
+      <formula>RIGHT(G9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="292" priority="296" operator="endsWith" text=" of">
+      <formula>RIGHT(G9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="297">
+      <formula>AND((RIGHT(G8, 3) = " of"), G10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="298">
+      <formula>AND(RIGHT(F9, 3) = " of", G10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="notContainsBlanks" dxfId="289" priority="299">
+      <formula>LEN(TRIM(G9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="cellIs" dxfId="288" priority="288" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="289" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="cellIs" dxfId="286" priority="287" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G8">
+    <cfRule type="cellIs" dxfId="285" priority="277" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="278" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="279" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="280" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="281" priority="281" operator="beginsWith" text="With Properties">
+      <formula>LEFT(G7,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="280" priority="282" operator="endsWith" text=" table of">
+      <formula>RIGHT(G7,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="279" priority="283" operator="endsWith" text=" of">
+      <formula>RIGHT(G7,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="284">
+      <formula>AND((RIGHT(G6, 3) = " of"), G8 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="285">
+      <formula>AND(RIGHT(F7, 3) = " of", G8 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G8">
+    <cfRule type="notContainsBlanks" dxfId="276" priority="286">
+      <formula>LEN(TRIM(G7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G8">
+    <cfRule type="cellIs" dxfId="275" priority="275" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="276" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G8">
+    <cfRule type="cellIs" dxfId="273" priority="274" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="272" priority="264" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="265" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="266" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="267" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="268" priority="268" operator="beginsWith" text="With Properties">
+      <formula>LEFT(G11,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="267" priority="269" operator="endsWith" text=" table of">
+      <formula>RIGHT(G11,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="266" priority="270" operator="endsWith" text=" of">
+      <formula>RIGHT(G11,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="271">
+      <formula>AND((RIGHT(G10, 3) = " of"), G12 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="272">
+      <formula>AND(RIGHT(F11, 3) = " of", G12 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="notContainsBlanks" dxfId="263" priority="273">
+      <formula>LEN(TRIM(G11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="262" priority="262" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="263" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="260" priority="261" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="259" priority="251" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="252" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="253" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="254" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="255" priority="255" operator="beginsWith" text="With Properties">
+      <formula>LEFT(G12,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="254" priority="256" operator="endsWith" text=" table of">
+      <formula>RIGHT(G12,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="253" priority="257" operator="endsWith" text=" of">
+      <formula>RIGHT(G12,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="258">
+      <formula>AND((RIGHT(G11, 3) = " of"), G13 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="259">
+      <formula>AND(RIGHT(F12, 3) = " of", G13 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="notContainsBlanks" dxfId="250" priority="260">
+      <formula>LEN(TRIM(G12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="249" priority="249" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="250" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="247" priority="248" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F10">
+    <cfRule type="cellIs" dxfId="246" priority="238" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="239" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="240" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="241" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="242" priority="242" operator="beginsWith" text="With Properties">
+      <formula>LEFT(F9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="241" priority="243" operator="endsWith" text=" table of">
+      <formula>RIGHT(F9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="240" priority="244" operator="endsWith" text=" of">
+      <formula>RIGHT(F9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="245">
+      <formula>AND((RIGHT(F8, 3) = " of"), F10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="246">
+      <formula>AND(RIGHT(E9, 3) = " of", F10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F10">
+    <cfRule type="notContainsBlanks" dxfId="237" priority="247">
+      <formula>LEN(TRIM(F9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F10">
+    <cfRule type="cellIs" dxfId="236" priority="236" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="237" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F10">
+    <cfRule type="cellIs" dxfId="234" priority="235" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F8">
+    <cfRule type="cellIs" dxfId="233" priority="225" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="226" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="227" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="228" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="229" priority="229" operator="beginsWith" text="With Properties">
+      <formula>LEFT(F7,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="228" priority="230" operator="endsWith" text=" table of">
+      <formula>RIGHT(F7,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="227" priority="231" operator="endsWith" text=" of">
+      <formula>RIGHT(F7,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="232">
+      <formula>AND((RIGHT(F6, 3) = " of"), F8 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="233">
+      <formula>AND(RIGHT(E7, 3) = " of", F8 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F8">
+    <cfRule type="notContainsBlanks" dxfId="224" priority="234">
+      <formula>LEN(TRIM(F7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F8">
+    <cfRule type="cellIs" dxfId="223" priority="223" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="224" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F8">
+    <cfRule type="cellIs" dxfId="221" priority="222" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="220" priority="212" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="213" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="214" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="215" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="216" priority="216" operator="beginsWith" text="With Properties">
+      <formula>LEFT(F11,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="215" priority="217" operator="endsWith" text=" table of">
+      <formula>RIGHT(F11,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="214" priority="218" operator="endsWith" text=" of">
+      <formula>RIGHT(F11,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="219">
+      <formula>AND((RIGHT(F10, 3) = " of"), F12 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="220">
+      <formula>AND(RIGHT(E11, 3) = " of", F12 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="notContainsBlanks" dxfId="211" priority="221">
+      <formula>LEN(TRIM(F11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="210" priority="210" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="211" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="208" priority="209" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="207" priority="199" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="200" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="201" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="202" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="203" priority="203" operator="beginsWith" text="With Properties">
+      <formula>LEFT(F12,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="202" priority="204" operator="endsWith" text=" table of">
+      <formula>RIGHT(F12,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="201" priority="205" operator="endsWith" text=" of">
+      <formula>RIGHT(F12,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="206">
+      <formula>AND((RIGHT(F11, 3) = " of"), F13 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="207">
+      <formula>AND(RIGHT(E12, 3) = " of", F13 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="notContainsBlanks" dxfId="198" priority="208">
+      <formula>LEN(TRIM(F12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="197" priority="197" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="198" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="195" priority="196" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="194" priority="186" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="187" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="188" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="189" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="190" priority="190" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D7,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="189" priority="191" operator="endsWith" text=" table of">
+      <formula>RIGHT(D7,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="188" priority="192" operator="endsWith" text=" of">
+      <formula>RIGHT(D7,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="193">
+      <formula>AND((RIGHT(D6, 3) = " of"), D8 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="194">
+      <formula>AND(RIGHT(C7, 3) = " of", D8 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="notContainsBlanks" dxfId="185" priority="195">
+      <formula>LEN(TRIM(D7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="184" priority="184" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="185" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="181" priority="173" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="174" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="175" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="176" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="177" priority="177" operator="beginsWith" text="With Properties">
+      <formula>LEFT(E7,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="176" priority="178" operator="endsWith" text=" table of">
+      <formula>RIGHT(E7,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="175" priority="179" operator="endsWith" text=" of">
+      <formula>RIGHT(E7,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="180">
+      <formula>AND((RIGHT(E6, 3) = " of"), E8 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="181">
+      <formula>AND(RIGHT(D7, 3) = " of", E8 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="notContainsBlanks" dxfId="172" priority="182">
+      <formula>LEN(TRIM(E7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="171" priority="171" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="172" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="168" priority="160" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="161" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="162" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="163" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="164" priority="164" operator="beginsWith" text="With Properties">
+      <formula>LEFT(E7,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="163" priority="165" operator="endsWith" text=" table of">
+      <formula>RIGHT(E7,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="162" priority="166" operator="endsWith" text=" of">
+      <formula>RIGHT(E7,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="167">
+      <formula>AND((RIGHT(E6, 3) = " of"), E8 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="168">
+      <formula>AND(RIGHT(D7, 3) = " of", E8 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="notContainsBlanks" dxfId="159" priority="169">
+      <formula>LEN(TRIM(E7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="158" priority="158" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="159" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="156" priority="157" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="155" priority="147" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="148" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="149" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="150" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="151" priority="151" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D8,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="150" priority="152" operator="endsWith" text=" table of">
+      <formula>RIGHT(D8,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="149" priority="153" operator="endsWith" text=" of">
+      <formula>RIGHT(D8,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="154">
+      <formula>AND((RIGHT(D7, 3) = " of"), D9 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="155">
+      <formula>AND(RIGHT(C8, 3) = " of", D9 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="notContainsBlanks" dxfId="146" priority="156">
+      <formula>LEN(TRIM(D8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="145" priority="145" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="146" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="143" priority="144" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:F9">
+    <cfRule type="cellIs" dxfId="142" priority="134" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="135" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="136" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="137" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="138" priority="138" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="137" priority="139" operator="endsWith" text=" table of">
+      <formula>RIGHT(D9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="136" priority="140" operator="endsWith" text=" of">
+      <formula>RIGHT(D9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="141">
+      <formula>AND((RIGHT(D8, 3) = " of"), D10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="142">
+      <formula>AND(RIGHT(C9, 3) = " of", D10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:F9">
+    <cfRule type="notContainsBlanks" dxfId="133" priority="143">
+      <formula>LEN(TRIM(D9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:F9">
+    <cfRule type="cellIs" dxfId="132" priority="132" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:F9">
+    <cfRule type="cellIs" dxfId="130" priority="131" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="129" priority="121" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="122" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="123" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="125" priority="125" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="124" priority="126" operator="endsWith" text=" table of">
+      <formula>RIGHT(D9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="123" priority="127" operator="endsWith" text=" of">
+      <formula>RIGHT(D9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="128">
+      <formula>AND((RIGHT(D8, 3) = " of"), D10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="129">
+      <formula>AND(RIGHT(C9, 3) = " of", D10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="notContainsBlanks" dxfId="120" priority="130">
+      <formula>LEN(TRIM(D9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="116" priority="108" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="109" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="112" priority="112" operator="beginsWith" text="With Properties">
+      <formula>LEFT(F8,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="111" priority="113" operator="endsWith" text=" table of">
+      <formula>RIGHT(F8,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="110" priority="114" operator="endsWith" text=" of">
+      <formula>RIGHT(F8,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="115">
+      <formula>AND((RIGHT(F7, 3) = " of"), F9 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="116">
+      <formula>AND(RIGHT(E8, 3) = " of", F9 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="notContainsBlanks" dxfId="107" priority="117">
+      <formula>LEN(TRIM(F8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="103" priority="95" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="96" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="99" priority="99" operator="beginsWith" text="With Properties">
+      <formula>LEFT(F9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="98" priority="100" operator="endsWith" text=" table of">
+      <formula>RIGHT(F9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="97" priority="101" operator="endsWith" text=" of">
+      <formula>RIGHT(F9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="102">
+      <formula>AND((RIGHT(F8, 3) = " of"), F10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="103">
+      <formula>AND(RIGHT(E9, 3) = " of", F10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="notContainsBlanks" dxfId="94" priority="104">
+      <formula>LEN(TRIM(F9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="90" priority="82" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="83" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="84" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="86" priority="86" operator="beginsWith" text="With Properties">
+      <formula>LEFT(E8,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="85" priority="87" operator="endsWith" text=" table of">
+      <formula>RIGHT(E8,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="84" priority="88" operator="endsWith" text=" of">
+      <formula>RIGHT(E8,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="89">
+      <formula>AND((RIGHT(E7, 3) = " of"), E9 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="90">
+      <formula>AND(RIGHT(D8, 3) = " of", E9 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="notContainsBlanks" dxfId="81" priority="91">
+      <formula>LEN(TRIM(E8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="77" priority="69" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="70" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="71" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="73" priority="73" operator="beginsWith" text="With Properties">
+      <formula>LEFT(E8,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="72" priority="74" operator="endsWith" text=" table of">
+      <formula>RIGHT(E8,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="71" priority="75" operator="endsWith" text=" of">
+      <formula>RIGHT(E8,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="76">
+      <formula>AND((RIGHT(E7, 3) = " of"), E9 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="77">
+      <formula>AND(RIGHT(D8, 3) = " of", E9 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="78">
+      <formula>LEN(TRIM(E8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="60" priority="60" operator="beginsWith" text="With Properties">
+      <formula>LEFT(E9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="59" priority="61" operator="endsWith" text=" table of">
+      <formula>RIGHT(E9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="58" priority="62" operator="endsWith" text=" of">
+      <formula>RIGHT(E9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="63">
+      <formula>AND((RIGHT(E8, 3) = " of"), E10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>AND(RIGHT(D9, 3) = " of", E10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="65">
+      <formula>LEN(TRIM(E9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="47" priority="47" operator="beginsWith" text="With Properties">
+      <formula>LEFT(E9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="46" priority="48" operator="endsWith" text=" table of">
+      <formula>RIGHT(E9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="45" priority="49" operator="endsWith" text=" of">
+      <formula>RIGHT(E9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="50">
+      <formula>AND((RIGHT(E8, 3) = " of"), E10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="51">
+      <formula>AND(RIGHT(D9, 3) = " of", E10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="52">
+      <formula>LEN(TRIM(E9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="34" priority="34" operator="beginsWith" text="With Properties">
+      <formula>LEFT(E9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="33" priority="35" operator="endsWith" text=" table of">
+      <formula>RIGHT(E9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="32" priority="36" operator="endsWith" text=" of">
+      <formula>RIGHT(E9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="37">
+      <formula>AND((RIGHT(E8, 3) = " of"), E10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="38">
+      <formula>AND(RIGHT(D9, 3) = " of", E10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="39">
+      <formula>LEN(TRIM(E9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="21" priority="21" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="20" priority="22" operator="endsWith" text=" table of">
+      <formula>RIGHT(D9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="19" priority="23" operator="endsWith" text=" of">
+      <formula>RIGHT(D9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="24">
+      <formula>AND((RIGHT(D8, 3) = " of"), D10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="25">
+      <formula>AND(RIGHT(C9, 3) = " of", D10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="26">
+      <formula>LEN(TRIM(D9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="7" priority="9" operator="endsWith" text=" table of">
+      <formula>RIGHT(D9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="6" priority="10" operator="endsWith" text=" of">
+      <formula>RIGHT(D9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>AND((RIGHT(D8, 3) = " of"), D10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>AND(RIGHT(C9, 3) = " of", D10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="13">
+      <formula>LEN(TRIM(D9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389079D-C9FD-4AFA-AFB3-2F9AFFAD165C}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1980,24 +6462,24 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2026,660 +6508,660 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD4 A5:B8 E5:XFD6 A9:D9 I7:XFD9 A10:F10 E11:F11 A13:XFD1048576 A11:C12 H10:XFD12 D10:E11">
-    <cfRule type="cellIs" dxfId="181" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="173" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="174" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="175" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="176" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="177" priority="177" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="554" priority="177" operator="beginsWith" text="With Properties">
       <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="176" priority="178" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="553" priority="178" operator="endsWith" text=" table of">
       <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="175" priority="179" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="552" priority="179" operator="endsWith" text=" of">
       <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="180">
+    <cfRule type="expression" dxfId="551" priority="180">
       <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="181">
+    <cfRule type="expression" dxfId="550" priority="181">
       <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD4 A5:B8 E5:XFD6 A9:D9 I7:XFD9 A10:F10 E11:F11 A13:XFD1048576 A11:C12 H10:XFD12 D10:E11">
-    <cfRule type="notContainsBlanks" dxfId="172" priority="182">
+    <cfRule type="notContainsBlanks" dxfId="549" priority="182">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD4 A5:B8 E5:XFD6 A9:D9 I7:XFD9 A10:F10 E11:F11 A13:XFD1048576 A11:C12 H10:XFD12 D10:E11">
-    <cfRule type="cellIs" dxfId="171" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="171" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="172" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD4 A5:B8 E5:XFD6 A9:D9 I7:XFD9 A10:F10 E11:F11 A13:XFD1048576 A11:C12 H10:XFD12 D10:E11">
-    <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="170" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D8">
-    <cfRule type="cellIs" dxfId="168" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="160" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="161" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="162" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="163" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="164" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="541" priority="164" operator="beginsWith" text="With Properties">
       <formula>LEFT(C5,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="163" priority="165" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="540" priority="165" operator="endsWith" text=" table of">
       <formula>RIGHT(C5,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="162" priority="166" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="539" priority="166" operator="endsWith" text=" of">
       <formula>RIGHT(C5,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="167">
+    <cfRule type="expression" dxfId="538" priority="167">
       <formula>AND((RIGHT(C4, 3) = " of"), C6 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="168">
+    <cfRule type="expression" dxfId="537" priority="168">
       <formula>AND(RIGHT(B5, 3) = " of", C6 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D8">
-    <cfRule type="notContainsBlanks" dxfId="159" priority="169">
+    <cfRule type="notContainsBlanks" dxfId="536" priority="169">
       <formula>LEN(TRIM(C5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D8">
-    <cfRule type="cellIs" dxfId="158" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="158" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="159" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D8">
-    <cfRule type="cellIs" dxfId="156" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="157" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9 D7:F9">
-    <cfRule type="cellIs" dxfId="155" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="147" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="148" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="149" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="150" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="151" priority="151" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="528" priority="151" operator="beginsWith" text="With Properties">
       <formula>LEFT(D7,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="150" priority="152" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="527" priority="152" operator="endsWith" text=" table of">
       <formula>RIGHT(D7,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="149" priority="153" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="526" priority="153" operator="endsWith" text=" of">
       <formula>RIGHT(D7,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="154">
+    <cfRule type="expression" dxfId="525" priority="154">
       <formula>AND((RIGHT(D6, 3) = " of"), D8 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="155">
+    <cfRule type="expression" dxfId="524" priority="155">
       <formula>AND(RIGHT(C7, 3) = " of", D8 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9 D7:F9">
-    <cfRule type="notContainsBlanks" dxfId="146" priority="156">
+    <cfRule type="notContainsBlanks" dxfId="523" priority="156">
       <formula>LEN(TRIM(D7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9 D7:F9">
-    <cfRule type="cellIs" dxfId="145" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="145" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="146" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9 D7:F9">
-    <cfRule type="cellIs" dxfId="143" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="144" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="142" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="134" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="135" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="136" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="137" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="138" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="515" priority="138" operator="beginsWith" text="With Properties">
       <formula>LEFT(D11,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="137" priority="139" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="514" priority="139" operator="endsWith" text=" table of">
       <formula>RIGHT(D11,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="136" priority="140" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="513" priority="140" operator="endsWith" text=" of">
       <formula>RIGHT(D11,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="141">
+    <cfRule type="expression" dxfId="512" priority="141">
       <formula>AND((RIGHT(D10, 3) = " of"), D12 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="142">
+    <cfRule type="expression" dxfId="511" priority="142">
       <formula>AND(RIGHT(C11, 3) = " of", D12 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="notContainsBlanks" dxfId="133" priority="143">
+    <cfRule type="notContainsBlanks" dxfId="510" priority="143">
       <formula>LEN(TRIM(D11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="132" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="132" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="133" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="130" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="131" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="cellIs" dxfId="129" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="121" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="122" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="123" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="124" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="125" priority="125" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="502" priority="125" operator="beginsWith" text="With Properties">
       <formula>LEFT(D12,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="124" priority="126" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="501" priority="126" operator="endsWith" text=" table of">
       <formula>RIGHT(D12,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="123" priority="127" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="500" priority="127" operator="endsWith" text=" of">
       <formula>RIGHT(D12,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="128">
+    <cfRule type="expression" dxfId="499" priority="128">
       <formula>AND((RIGHT(D11, 3) = " of"), D13 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="129">
+    <cfRule type="expression" dxfId="498" priority="129">
       <formula>AND(RIGHT(C12, 3) = " of", D13 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="notContainsBlanks" dxfId="120" priority="130">
+    <cfRule type="notContainsBlanks" dxfId="497" priority="130">
       <formula>LEN(TRIM(D12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="119" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="120" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="118" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="116" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="108" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="109" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="110" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="111" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="112" priority="112" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="489" priority="112" operator="beginsWith" text="With Properties">
       <formula>LEFT(D12,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="111" priority="113" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="488" priority="113" operator="endsWith" text=" table of">
       <formula>RIGHT(D12,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="110" priority="114" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="487" priority="114" operator="endsWith" text=" of">
       <formula>RIGHT(D12,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="115">
+    <cfRule type="expression" dxfId="486" priority="115">
       <formula>AND((RIGHT(D11, 3) = " of"), D13 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="116">
+    <cfRule type="expression" dxfId="485" priority="116">
       <formula>AND(RIGHT(C12, 3) = " of", D13 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="notContainsBlanks" dxfId="107" priority="117">
+    <cfRule type="notContainsBlanks" dxfId="484" priority="117">
       <formula>LEN(TRIM(D12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="106" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="107" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="105" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G10">
-    <cfRule type="cellIs" dxfId="103" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="95" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="96" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="97" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="98" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="99" priority="99" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="476" priority="99" operator="beginsWith" text="With Properties">
       <formula>LEFT(G9,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="98" priority="100" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="475" priority="100" operator="endsWith" text=" table of">
       <formula>RIGHT(G9,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="97" priority="101" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="474" priority="101" operator="endsWith" text=" of">
       <formula>RIGHT(G9,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="102">
+    <cfRule type="expression" dxfId="473" priority="102">
       <formula>AND((RIGHT(G8, 3) = " of"), G10 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="103">
+    <cfRule type="expression" dxfId="472" priority="103">
       <formula>AND(RIGHT(F9, 3) = " of", G10 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G10">
-    <cfRule type="notContainsBlanks" dxfId="94" priority="104">
+    <cfRule type="notContainsBlanks" dxfId="471" priority="104">
       <formula>LEN(TRIM(G9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G10">
-    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="93" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="94" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G10">
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="92" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" dxfId="90" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="82" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="83" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="84" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="85" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="86" priority="86" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="463" priority="86" operator="beginsWith" text="With Properties">
       <formula>LEFT(G7,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="85" priority="87" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="462" priority="87" operator="endsWith" text=" table of">
       <formula>RIGHT(G7,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="84" priority="88" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="461" priority="88" operator="endsWith" text=" of">
       <formula>RIGHT(G7,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="89">
+    <cfRule type="expression" dxfId="460" priority="89">
       <formula>AND((RIGHT(G6, 3) = " of"), G8 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="90">
+    <cfRule type="expression" dxfId="459" priority="90">
       <formula>AND(RIGHT(F7, 3) = " of", G8 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="notContainsBlanks" dxfId="81" priority="91">
+    <cfRule type="notContainsBlanks" dxfId="458" priority="91">
       <formula>LEN(TRIM(G7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="80" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="81" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="79" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="77" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="69" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="70" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="71" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="72" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="73" priority="73" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="450" priority="73" operator="beginsWith" text="With Properties">
       <formula>LEFT(G11,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="72" priority="74" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="449" priority="74" operator="endsWith" text=" table of">
       <formula>RIGHT(G11,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="71" priority="75" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="448" priority="75" operator="endsWith" text=" of">
       <formula>RIGHT(G11,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="76">
+    <cfRule type="expression" dxfId="447" priority="76">
       <formula>AND((RIGHT(G10, 3) = " of"), G12 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="77">
+    <cfRule type="expression" dxfId="446" priority="77">
       <formula>AND(RIGHT(F11, 3) = " of", G12 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="notContainsBlanks" dxfId="68" priority="78">
+    <cfRule type="notContainsBlanks" dxfId="445" priority="78">
       <formula>LEN(TRIM(G11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="67" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="68" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="66" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="56" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="57" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="58" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="59" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="60" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="437" priority="60" operator="beginsWith" text="With Properties">
       <formula>LEFT(G12,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="59" priority="61" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="436" priority="61" operator="endsWith" text=" table of">
       <formula>RIGHT(G12,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="58" priority="62" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="435" priority="62" operator="endsWith" text=" of">
       <formula>RIGHT(G12,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="434" priority="63">
       <formula>AND((RIGHT(G11, 3) = " of"), G13 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="433" priority="64">
       <formula>AND(RIGHT(F12, 3) = " of", G13 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="65">
+    <cfRule type="notContainsBlanks" dxfId="432" priority="65">
       <formula>LEN(TRIM(G12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="54" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="55" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="53" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="43" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="44" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="45" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="46" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="47" priority="47" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="424" priority="47" operator="beginsWith" text="With Properties">
       <formula>LEFT(F9,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="46" priority="48" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="423" priority="48" operator="endsWith" text=" table of">
       <formula>RIGHT(F9,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="45" priority="49" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="422" priority="49" operator="endsWith" text=" of">
       <formula>RIGHT(F9,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="50">
+    <cfRule type="expression" dxfId="421" priority="50">
       <formula>AND((RIGHT(F8, 3) = " of"), F10 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="51">
+    <cfRule type="expression" dxfId="420" priority="51">
       <formula>AND(RIGHT(E9, 3) = " of", F10 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="52">
+    <cfRule type="notContainsBlanks" dxfId="419" priority="52">
       <formula>LEN(TRIM(F9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="41" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="42" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="40" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="30" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="31" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="32" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="33" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="34" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="411" priority="34" operator="beginsWith" text="With Properties">
       <formula>LEFT(F7,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="33" priority="35" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="410" priority="35" operator="endsWith" text=" table of">
       <formula>RIGHT(F7,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="32" priority="36" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="409" priority="36" operator="endsWith" text=" of">
       <formula>RIGHT(F7,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="37">
+    <cfRule type="expression" dxfId="408" priority="37">
       <formula>AND((RIGHT(F6, 3) = " of"), F8 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="38">
+    <cfRule type="expression" dxfId="407" priority="38">
       <formula>AND(RIGHT(E7, 3) = " of", F8 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="406" priority="39">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="28" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="29" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="27" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="17" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="18" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="19" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="20" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="21" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="398" priority="21" operator="beginsWith" text="With Properties">
       <formula>LEFT(F11,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="20" priority="22" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="397" priority="22" operator="endsWith" text=" table of">
       <formula>RIGHT(F11,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="19" priority="23" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="396" priority="23" operator="endsWith" text=" of">
       <formula>RIGHT(F11,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="395" priority="24">
       <formula>AND((RIGHT(F10, 3) = " of"), F12 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="25">
+    <cfRule type="expression" dxfId="394" priority="25">
       <formula>AND(RIGHT(E11, 3) = " of", F12 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="393" priority="26">
       <formula>LEN(TRIM(F11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="15" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="16" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="14" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="4" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="5" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="6" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="7" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="385" priority="8" operator="beginsWith" text="With Properties">
       <formula>LEFT(F12,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="7" priority="9" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="384" priority="9" operator="endsWith" text=" table of">
       <formula>RIGHT(F12,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="6" priority="10" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="383" priority="10" operator="endsWith" text=" of">
       <formula>RIGHT(F12,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="382" priority="11">
       <formula>AND((RIGHT(F11, 3) = " of"), F13 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="381" priority="12">
       <formula>AND(RIGHT(E12, 3) = " of", F13 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="380" priority="13">
       <formula>LEN(TRIM(F12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="2" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="3" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="1" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
